--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/IAM-COMPACT-Study-8/conceptual test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B4790-FBFB-C444-B70D-3CE71594F5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE5EA3-2CCF-644B-9733-4CB361C66EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="Regions Map" sheetId="2" r:id="rId2"/>
-    <sheet name="new_act" sheetId="3" r:id="rId3"/>
-    <sheet name="DB units" sheetId="4" r:id="rId4"/>
+    <sheet name="new_act1" sheetId="3" r:id="rId3"/>
+    <sheet name="new_act2" sheetId="5" r:id="rId4"/>
+    <sheet name="DB units" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Region</t>
   </si>
@@ -64,15 +65,6 @@
     <t>GLOBAL</t>
   </si>
   <si>
-    <t>New activity</t>
-  </si>
-  <si>
-    <t>New commodity</t>
-  </si>
-  <si>
-    <t>new_act</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -140,6 +132,24 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>new_act1</t>
+  </si>
+  <si>
+    <t>ACT1</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>ACT2</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>new_act2</t>
   </si>
 </sst>
 </file>
@@ -553,10 +563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,34 +625,66 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -671,12 +713,12 @@
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -696,25 +738,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -725,22 +767,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +791,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A2002-F26B-0243-A606-48AF09AA929E}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -758,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,32 +925,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE5EA3-2CCF-644B-9733-4CB361C66EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410251B2-22A5-984A-82A3-B181A190EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>ACT2</t>
-  </si>
-  <si>
-    <t>COM2</t>
   </si>
   <si>
     <t>new_act2</t>
@@ -565,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L3"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,16 +654,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -731,7 +728,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,10 +789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A2002-F26B-0243-A606-48AF09AA929E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,32 +843,9 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE5EA3-2CCF-644B-9733-4CB361C66EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C695C-0757-FB48-B99D-4AC522853E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>Final demand</t>
   </si>
   <si>
     <t>test</t>
@@ -565,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L3"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -625,16 +622,16 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -645,14 +642,8 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -660,31 +651,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -713,12 +698,12 @@
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -730,33 +715,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -767,22 +752,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A2002-F26B-0243-A606-48AF09AA929E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,25 +790,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -834,22 +819,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -860,19 +845,42 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,32 +933,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F9212-2F12-794A-9864-26D72553B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Master"/>
-    <sheet r:id="rId2" sheetId="2" name="Regions Map"/>
-    <sheet r:id="rId3" sheetId="3" name="new_act1"/>
-    <sheet r:id="rId4" sheetId="4" name="new_act2"/>
-    <sheet r:id="rId5" sheetId="5" name="DB units"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Regions Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Gsteel" sheetId="3" r:id="rId3"/>
+    <sheet name="Gsteel RoW" sheetId="5" r:id="rId4"/>
+    <sheet name="DB units" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>unit</t>
   </si>
@@ -26,10 +32,19 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Production of Goods</t>
-  </si>
-  <si>
-    <t>Production of Services</t>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Other industries</t>
+  </si>
+  <si>
+    <t>Traditional steelmaking</t>
+  </si>
+  <si>
+    <t>Electricity</t>
   </si>
   <si>
     <t>Commodity</t>
@@ -38,25 +53,28 @@
     <t>Goods</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>€</t>
+    <t>Mton</t>
+  </si>
+  <si>
+    <t>G€</t>
+  </si>
+  <si>
+    <t>Old steel</t>
+  </si>
+  <si>
+    <t>TJ</t>
   </si>
   <si>
     <t>Factor of production</t>
   </si>
   <si>
-    <t>Value Added</t>
+    <t>Value added</t>
   </si>
   <si>
     <t>Satellite account</t>
   </si>
   <si>
-    <t>Emissions</t>
+    <t>GHG</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -89,16 +107,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>COM2</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>VA</t>
   </si>
   <si>
     <t>Region</t>
@@ -128,26 +146,19 @@
     <t>Leave empty</t>
   </si>
   <si>
-    <t>ACT1</t>
-  </si>
-  <si>
-    <t>new_act1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>ACT2</t>
-  </si>
-  <si>
-    <t>new_act2</t>
+    <t>Green steelmaking</t>
+  </si>
+  <si>
+    <t>Green steel</t>
+  </si>
+  <si>
+    <t>Gsteel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,6 +168,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,12 +182,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -193,13 +205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -214,45 +219,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -263,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -304,71 +322,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,7 +414,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -419,11 +437,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -432,13 +450,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -448,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -457,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -466,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -474,10 +492,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -542,126 +560,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="219" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7">
+      <c r="J1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
+      <c r="J2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -678,24 +664,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -704,75 +690,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>9.7684465828781195E-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -780,123 +849,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE6ACEF-2ADB-464D-8B15-AE40FEABD1BA}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView zoomScale="240" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>9.7684465828781195E-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,88 +1054,133 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F9212-2F12-794A-9864-26D72553B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FAA53-081F-E149-B94B-B41A7C4932A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>unit</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Gsteel</t>
+  </si>
+  <si>
+    <t>Gsteel RoW</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="219" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,7 +629,7 @@
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -648,6 +651,29 @@
       </c>
       <c r="J2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +688,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -696,8 +724,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="240" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FAA53-081F-E149-B94B-B41A7C4932A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA223AC-177F-6A4D-9B0E-7AD016342B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +262,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +571,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -652,6 +653,9 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -661,7 +665,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -675,6 +679,7 @@
       <c r="G3" s="9">
         <v>1</v>
       </c>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conceptual test/master.xlsx
+++ b/conceptual test/master.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/FIONA/conceptual test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA223AC-177F-6A4D-9B0E-7AD016342B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E48DA21-7255-2145-8E4E-4A4C41A3F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="Regions Map" sheetId="2" r:id="rId2"/>
-    <sheet name="Gsteel" sheetId="3" r:id="rId3"/>
-    <sheet name="Gsteel RoW" sheetId="5" r:id="rId4"/>
-    <sheet name="DB units" sheetId="4" r:id="rId5"/>
+    <sheet name="Gsteel" sheetId="5" r:id="rId3"/>
+    <sheet name="Test" sheetId="6" r:id="rId4"/>
+    <sheet name="Test2" sheetId="7" r:id="rId5"/>
+    <sheet name="DB units" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>unit</t>
   </si>
@@ -155,7 +156,19 @@
     <t>Gsteel</t>
   </si>
   <si>
-    <t>Gsteel RoW</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -568,10 +581,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="219" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,7 +598,7 @@
     <col min="7" max="7" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -628,58 +641,78 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="5">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="b">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,14 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE6ACEF-2ADB-464D-8B15-AE40FEABD1BA}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="240" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,7 +848,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -882,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE6ACEF-2ADB-464D-8B15-AE40FEABD1BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939237FD-1F13-824E-B72F-F50316B1F0F8}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="240" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,7 +961,7 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -951,7 +984,7 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>9.7684465828781195E-2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -966,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -974,110 +1007,24 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>300</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1087,6 +1034,125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217C4354-B707-1244-869E-C2C0E3D5B477}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
